--- a/data/trans_orig/cron_mort_index-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/cron_mort_index-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{733CD7C3-53EB-4777-9357-2B02E332DFCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{20C9BE85-C5A1-4B61-A901-9052B7555851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6AFBA15B-FF9E-4099-872B-88DC084A333C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C0ED2AC1-E61D-4AC6-B192-AD8A80C66B75}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="394">
   <si>
     <t>Índice de cronicidad física en base a la mortalidad en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -89,1077 +89,1071 @@
     <t>7,17%</t>
   </si>
   <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
   </si>
   <si>
     <t>5,26%</t>
   </si>
   <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
   </si>
   <si>
     <t>6,22%</t>
   </si>
   <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
   </si>
   <si>
     <t>92,83%</t>
   </si>
   <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
   </si>
   <si>
     <t>94,74%</t>
   </si>
   <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
   </si>
   <si>
     <t>93,78%</t>
   </si>
   <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Índice de cronicidad física en base a la mortalidad en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
     <t>90,21%</t>
   </si>
   <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>Índice de cronicidad física en base a la mortalidad en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
   </si>
   <si>
     <t>92,53%</t>
   </si>
   <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
   </si>
   <si>
     <t>8,62%</t>
   </si>
   <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Índice de cronicidad física en base a la mortalidad en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
   </si>
   <si>
     <t>89,39%</t>
   </si>
   <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>Índice de cronicidad física en base a la mortalidad en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
     <t>90,84%</t>
   </si>
   <si>
@@ -1167,9 +1161,6 @@
   </si>
   <si>
     <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -1641,7 +1632,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51CA2C26-6670-4407-BA21-383C2001EA9E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{669014C2-63B0-4283-9385-D11590E08014}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2231,10 +2222,10 @@
         <v>59</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H13" s="7">
         <v>71</v>
@@ -2243,13 +2234,13 @@
         <v>76565</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M13" s="7">
         <v>134</v>
@@ -2258,13 +2249,13 @@
         <v>141571</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2279,13 +2270,13 @@
         <v>896794</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="H14" s="7">
         <v>837</v>
@@ -2294,13 +2285,13 @@
         <v>891828</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="M14" s="7">
         <v>1670</v>
@@ -2309,13 +2300,13 @@
         <v>1788622</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2371,7 +2362,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5">
         <v>2</v>
@@ -2389,7 +2380,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2404,7 +2395,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2419,7 +2410,7 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2434,13 +2425,13 @@
         <v>29851</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="H17" s="7">
         <v>47</v>
@@ -2449,13 +2440,13 @@
         <v>45293</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="M17" s="7">
         <v>77</v>
@@ -2464,13 +2455,13 @@
         <v>75144</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2485,13 +2476,13 @@
         <v>648658</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="H18" s="7">
         <v>649</v>
@@ -2500,13 +2491,13 @@
         <v>638548</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="M18" s="7">
         <v>1260</v>
@@ -2515,13 +2506,13 @@
         <v>1287206</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2577,7 +2568,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B20" s="5">
         <v>2</v>
@@ -2595,7 +2586,7 @@
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2610,7 +2601,7 @@
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2625,7 +2616,7 @@
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2640,13 +2631,13 @@
         <v>50725</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H21" s="7">
         <v>64</v>
@@ -2655,13 +2646,13 @@
         <v>65889</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M21" s="7">
         <v>122</v>
@@ -2670,13 +2661,13 @@
         <v>116614</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2691,13 +2682,13 @@
         <v>891497</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H22" s="7">
         <v>933</v>
@@ -2706,13 +2697,13 @@
         <v>972723</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M22" s="7">
         <v>1869</v>
@@ -2721,13 +2712,13 @@
         <v>1864220</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2801,7 +2792,7 @@
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2816,7 +2807,7 @@
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -2831,7 +2822,7 @@
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2846,13 +2837,13 @@
         <v>185467</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H25" s="7">
         <v>224</v>
@@ -2861,13 +2852,13 @@
         <v>229249</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M25" s="7">
         <v>416</v>
@@ -2876,13 +2867,13 @@
         <v>414716</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2897,13 +2888,13 @@
         <v>3091077</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="H26" s="7">
         <v>3073</v>
@@ -2924,7 +2915,7 @@
         <v>6095</v>
       </c>
       <c r="N26" s="7">
-        <v>6241024</v>
+        <v>6241025</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>129</v>
@@ -2975,7 +2966,7 @@
         <v>6511</v>
       </c>
       <c r="N27" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>33</v>
@@ -3010,7 +3001,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E75FED-C3C3-42D5-B980-323BDE2A0FF3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29C2D79B-8DF2-41A4-B88C-3B8C4B537657}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3394,10 +3385,10 @@
         <v>160</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>76</v>
+        <v>161</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H9" s="7">
         <v>47</v>
@@ -3406,10 +3397,10 @@
         <v>49506</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>163</v>
+        <v>121</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>164</v>
@@ -3448,7 +3439,7 @@
         <v>169</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>83</v>
+        <v>170</v>
       </c>
       <c r="H10" s="7">
         <v>503</v>
@@ -3457,13 +3448,13 @@
         <v>534706</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>69</v>
+        <v>171</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>65</v>
+        <v>173</v>
       </c>
       <c r="M10" s="7">
         <v>1010</v>
@@ -3472,13 +3463,13 @@
         <v>1072795</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3552,7 +3543,7 @@
         <v>10</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -3561,13 +3552,13 @@
         <v>2091</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M12" s="7">
         <v>4</v>
@@ -3576,13 +3567,13 @@
         <v>4195</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3597,13 +3588,13 @@
         <v>69173</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="H13" s="7">
         <v>91</v>
@@ -3612,13 +3603,13 @@
         <v>98650</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="M13" s="7">
         <v>153</v>
@@ -3627,13 +3618,13 @@
         <v>167824</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3648,13 +3639,13 @@
         <v>946669</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>190</v>
+        <v>93</v>
       </c>
       <c r="H14" s="7">
         <v>847</v>
@@ -3663,13 +3654,13 @@
         <v>931443</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="M14" s="7">
         <v>1719</v>
@@ -3678,13 +3669,13 @@
         <v>1878112</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3740,7 +3731,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5">
         <v>2</v>
@@ -3758,7 +3749,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -3767,13 +3758,13 @@
         <v>986</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -3782,13 +3773,13 @@
         <v>986</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3803,13 +3794,13 @@
         <v>61620</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H17" s="7">
         <v>71</v>
@@ -3818,7 +3809,7 @@
         <v>77477</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>203</v>
+        <v>23</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>204</v>
@@ -3839,7 +3830,7 @@
         <v>207</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>208</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3854,13 +3845,13 @@
         <v>696003</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>210</v>
-      </c>
       <c r="G18" s="7" t="s">
-        <v>211</v>
+        <v>109</v>
       </c>
       <c r="H18" s="7">
         <v>633</v>
@@ -3869,13 +3860,13 @@
         <v>698712</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="M18" s="7">
         <v>1266</v>
@@ -3884,13 +3875,13 @@
         <v>1394715</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3946,7 +3937,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B20" s="5">
         <v>2</v>
@@ -3958,13 +3949,13 @@
         <v>7002</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -3976,10 +3967,10 @@
         <v>155</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="M20" s="7">
         <v>10</v>
@@ -3988,13 +3979,13 @@
         <v>10708</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4009,13 +4000,13 @@
         <v>91662</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="H21" s="7">
         <v>120</v>
@@ -4024,13 +4015,13 @@
         <v>128068</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="M21" s="7">
         <v>206</v>
@@ -4039,13 +4030,13 @@
         <v>219729</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4060,13 +4051,13 @@
         <v>849075</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="H22" s="7">
         <v>879</v>
@@ -4075,13 +4066,13 @@
         <v>920128</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="M22" s="7">
         <v>1697</v>
@@ -4090,13 +4081,13 @@
         <v>1769203</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4164,13 +4155,13 @@
         <v>9107</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="H24" s="7">
         <v>8</v>
@@ -4179,13 +4170,13 @@
         <v>7715</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="M24" s="7">
         <v>16</v>
@@ -4194,13 +4185,13 @@
         <v>16822</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4218,10 +4209,10 @@
         <v>249</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>15</v>
+        <v>250</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H25" s="7">
         <v>338</v>
@@ -4230,13 +4221,13 @@
         <v>363390</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M25" s="7">
         <v>594</v>
@@ -4245,13 +4236,13 @@
         <v>641467</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4266,13 +4257,13 @@
         <v>3139595</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H26" s="7">
         <v>2952</v>
@@ -4281,13 +4272,13 @@
         <v>3187204</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M26" s="7">
         <v>5897</v>
@@ -4296,13 +4287,13 @@
         <v>6326798</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>264</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4379,7 +4370,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31DCF130-A244-43C5-98A2-CFB396C548D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0A471BF-7E3C-4520-AE98-E05FFE62CAED}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4503,13 +4494,13 @@
         <v>845</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4524,7 +4515,7 @@
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4533,13 +4524,13 @@
         <v>845</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4554,13 +4545,13 @@
         <v>7162</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="H5" s="7">
         <v>10</v>
@@ -4569,13 +4560,13 @@
         <v>11351</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="M5" s="7">
         <v>18</v>
@@ -4584,13 +4575,13 @@
         <v>18513</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4605,13 +4596,13 @@
         <v>108539</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>104</v>
+        <v>278</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="H6" s="7">
         <v>105</v>
@@ -4620,13 +4611,13 @@
         <v>102009</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="M6" s="7">
         <v>209</v>
@@ -4635,13 +4626,13 @@
         <v>210548</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4739,13 +4730,13 @@
         <v>959</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4760,13 +4751,13 @@
         <v>60368</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="H9" s="7">
         <v>56</v>
@@ -4775,13 +4766,13 @@
         <v>60401</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M9" s="7">
         <v>116</v>
@@ -4790,13 +4781,13 @@
         <v>120769</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="P9" s="7" t="s">
-        <v>294</v>
-      </c>
       <c r="Q9" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4811,13 +4802,13 @@
         <v>496927</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="H10" s="7">
         <v>495</v>
@@ -4826,13 +4817,13 @@
         <v>499078</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M10" s="7">
         <v>973</v>
@@ -4841,13 +4832,13 @@
         <v>996005</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4921,7 +4912,7 @@
         <v>10</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -4930,13 +4921,13 @@
         <v>1016</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -4945,13 +4936,13 @@
         <v>1883</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4966,13 +4957,13 @@
         <v>91798</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="H13" s="7">
         <v>84</v>
@@ -4981,13 +4972,13 @@
         <v>98915</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="M13" s="7">
         <v>175</v>
@@ -4996,10 +4987,10 @@
         <v>190713</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>312</v>
@@ -5023,7 +5014,7 @@
         <v>314</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>48</v>
+        <v>315</v>
       </c>
       <c r="H14" s="7">
         <v>892</v>
@@ -5032,13 +5023,13 @@
         <v>942981</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M14" s="7">
         <v>1751</v>
@@ -5047,10 +5038,10 @@
         <v>1872748</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>319</v>
+        <v>153</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>320</v>
@@ -5109,7 +5100,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5">
         <v>2</v>
@@ -5121,7 +5112,7 @@
         <v>955</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>10</v>
@@ -5136,13 +5127,13 @@
         <v>1033</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -5151,7 +5142,7 @@
         <v>1988</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>10</v>
@@ -5187,13 +5178,13 @@
         <v>77736</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="M17" s="7">
         <v>139</v>
@@ -5202,13 +5193,13 @@
         <v>154570</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5223,7 +5214,7 @@
         <v>681762</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>172</v>
+        <v>330</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>331</v>
@@ -5241,10 +5232,10 @@
         <v>333</v>
       </c>
       <c r="K18" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M18" s="7">
         <v>1291</v>
@@ -5253,13 +5244,13 @@
         <v>1388004</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>243</v>
+        <v>335</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5315,7 +5306,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B20" s="5">
         <v>2</v>
@@ -5333,7 +5324,7 @@
         <v>10</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -5342,13 +5333,13 @@
         <v>2070</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -5357,10 +5348,10 @@
         <v>3697</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>322</v>
@@ -5378,13 +5369,13 @@
         <v>80783</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>64</v>
+        <v>340</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="H21" s="7">
         <v>94</v>
@@ -5393,10 +5384,10 @@
         <v>111687</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>341</v>
+        <v>145</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>342</v>
+        <v>43</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>343</v>
@@ -5432,10 +5423,10 @@
         <v>347</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>349</v>
       </c>
       <c r="H22" s="7">
         <v>863</v>
@@ -5444,13 +5435,13 @@
         <v>930022</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>352</v>
       </c>
       <c r="M22" s="7">
         <v>1706</v>
@@ -5459,13 +5450,13 @@
         <v>1785179</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5533,13 +5524,13 @@
         <v>5253</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>357</v>
+        <v>201</v>
       </c>
       <c r="H24" s="7">
         <v>4</v>
@@ -5548,13 +5539,13 @@
         <v>4120</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="M24" s="7">
         <v>10</v>
@@ -5563,13 +5554,13 @@
         <v>9372</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5584,13 +5575,13 @@
         <v>316945</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>165</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="H25" s="7">
         <v>312</v>
@@ -5599,13 +5590,13 @@
         <v>360090</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>364</v>
       </c>
       <c r="M25" s="7">
         <v>629</v>
@@ -5614,13 +5605,13 @@
         <v>677035</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>206</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5635,13 +5626,13 @@
         <v>3072152</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>367</v>
+        <v>258</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="H26" s="7">
         <v>3022</v>
@@ -5650,13 +5641,13 @@
         <v>3180332</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="M26" s="7">
         <v>5930</v>
@@ -5665,13 +5656,13 @@
         <v>6252485</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>147</v>
+        <v>370</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5748,7 +5739,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F44F4211-F377-43D4-89F5-DEECCD68A457}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0EBB699-CC4C-4CBA-86E3-F23DB8442CB6}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5765,7 +5756,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5878,7 +5869,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5893,7 +5884,7 @@
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>376</v>
+        <v>179</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5908,7 +5899,7 @@
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5929,7 +5920,7 @@
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5944,7 +5935,7 @@
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>376</v>
+        <v>179</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -5959,7 +5950,7 @@
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5974,10 +5965,10 @@
         <v>101982</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>33</v>
@@ -5989,10 +5980,10 @@
         <v>130733</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>33</v>
@@ -6004,10 +5995,10 @@
         <v>232715</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>380</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>33</v>
@@ -6084,7 +6075,7 @@
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -6099,7 +6090,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -6114,7 +6105,7 @@
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6135,7 +6126,7 @@
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -6150,7 +6141,7 @@
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -6165,7 +6156,7 @@
         <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6180,10 +6171,10 @@
         <v>549823</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>33</v>
@@ -6195,10 +6186,10 @@
         <v>619967</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>33</v>
@@ -6210,10 +6201,10 @@
         <v>1169790</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>33</v>
@@ -6290,7 +6281,7 @@
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -6305,7 +6296,7 @@
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -6341,7 +6332,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -6356,7 +6347,7 @@
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -6386,10 +6377,10 @@
         <v>1039248</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>33</v>
@@ -6401,10 +6392,10 @@
         <v>1060079</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>33</v>
@@ -6416,10 +6407,10 @@
         <v>2099327</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>33</v>
@@ -6478,7 +6469,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5">
         <v>2</v>
@@ -6496,7 +6487,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -6511,7 +6502,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -6547,7 +6538,7 @@
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -6562,7 +6553,7 @@
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -6592,10 +6583,10 @@
         <v>728772</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>33</v>
@@ -6607,10 +6598,10 @@
         <v>874371</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>33</v>
@@ -6622,10 +6613,10 @@
         <v>1603142</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>33</v>
@@ -6684,7 +6675,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B20" s="5">
         <v>2</v>
@@ -6702,7 +6693,7 @@
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -6717,7 +6708,7 @@
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -6732,7 +6723,7 @@
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6753,7 +6744,7 @@
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -6768,7 +6759,7 @@
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -6783,7 +6774,7 @@
         <v>11</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6798,10 +6789,10 @@
         <v>965403</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>33</v>
@@ -6813,10 +6804,10 @@
         <v>1150432</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>33</v>
@@ -6828,10 +6819,10 @@
         <v>2115835</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>33</v>
@@ -6908,7 +6899,7 @@
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -6923,7 +6914,7 @@
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -6938,7 +6929,7 @@
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6959,7 +6950,7 @@
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -6974,7 +6965,7 @@
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -6989,7 +6980,7 @@
         <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7004,10 +6995,10 @@
         <v>3385228</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>33</v>
@@ -7019,10 +7010,10 @@
         <v>3835581</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>33</v>
@@ -7031,13 +7022,13 @@
         <v>8743</v>
       </c>
       <c r="N26" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>33</v>
@@ -7082,7 +7073,7 @@
         <v>8743</v>
       </c>
       <c r="N27" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>33</v>

--- a/data/trans_orig/cron_mort_index-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/cron_mort_index-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20C9BE85-C5A1-4B61-A901-9052B7555851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{639DB372-299F-4D44-AE95-515AFA9C5D54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C0ED2AC1-E61D-4AC6-B192-AD8A80C66B75}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{344E88B3-56CA-4AEA-8E67-82859D70B330}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="407">
   <si>
     <t>Índice de cronicidad física en base a la mortalidad en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -89,1078 +89,1117 @@
     <t>7,17%</t>
   </si>
   <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
   </si>
   <si>
     <t>5,26%</t>
   </si>
   <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
   </si>
   <si>
     <t>6,22%</t>
   </si>
   <si>
-    <t>3,65%</t>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Índice de cronicidad física en base a la mortalidad en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
   </si>
   <si>
     <t>9,97%</t>
   </si>
   <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
   </si>
   <si>
     <t>91,28%</t>
   </si>
   <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Índice de cronicidad física en base a la mortalidad en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
+    <t>Índice de cronicidad física en base a la mortalidad en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
   </si>
   <si>
     <t>10,7%</t>
   </si>
   <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>Índice de cronicidad física en base a la mortalidad en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,61%</t>
   </si>
   <si>
     <t>0,79%</t>
   </si>
   <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>Índice de cronicidad física en base a la mortalidad en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
     <t>0,53%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>Índice de cronicidad física en base a la mortalidad en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,61%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -1632,7 +1671,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{669014C2-63B0-4283-9385-D11590E08014}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9F42B7D-63B3-4B4D-9A8B-78A55E16AA7F}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2431,7 +2470,7 @@
         <v>82</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="H17" s="7">
         <v>47</v>
@@ -2440,13 +2479,13 @@
         <v>45293</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M17" s="7">
         <v>77</v>
@@ -2455,13 +2494,13 @@
         <v>75144</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2476,13 +2515,13 @@
         <v>648658</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H18" s="7">
         <v>649</v>
@@ -2491,13 +2530,13 @@
         <v>638548</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M18" s="7">
         <v>1260</v>
@@ -2506,13 +2545,13 @@
         <v>1287206</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2568,7 +2607,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B20" s="5">
         <v>2</v>
@@ -2586,7 +2625,7 @@
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2601,7 +2640,7 @@
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2616,7 +2655,7 @@
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2631,13 +2670,13 @@
         <v>50725</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H21" s="7">
         <v>64</v>
@@ -2646,13 +2685,13 @@
         <v>65889</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="M21" s="7">
         <v>122</v>
@@ -2661,13 +2700,13 @@
         <v>116614</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2682,13 +2721,13 @@
         <v>891497</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="H22" s="7">
         <v>933</v>
@@ -2697,13 +2736,13 @@
         <v>972723</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="M22" s="7">
         <v>1869</v>
@@ -2712,13 +2751,13 @@
         <v>1864220</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2792,7 +2831,7 @@
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2807,7 +2846,7 @@
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -2822,7 +2861,7 @@
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2837,13 +2876,13 @@
         <v>185467</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="H25" s="7">
         <v>224</v>
@@ -2852,13 +2891,13 @@
         <v>229249</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="M25" s="7">
         <v>416</v>
@@ -2867,13 +2906,13 @@
         <v>414716</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2885,16 +2924,16 @@
         <v>3022</v>
       </c>
       <c r="D26" s="7">
-        <v>3091077</v>
+        <v>3091076</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="H26" s="7">
         <v>3073</v>
@@ -2903,13 +2942,13 @@
         <v>3149949</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="M26" s="7">
         <v>6095</v>
@@ -2918,13 +2957,13 @@
         <v>6241025</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2936,7 +2975,7 @@
         <v>3214</v>
       </c>
       <c r="D27" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>33</v>
@@ -2980,7 +3019,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -3001,7 +3040,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29C2D79B-8DF2-41A4-B88C-3B8C4B537657}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25933676-571A-4B28-8583-FC3F20EACC15}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3018,7 +3057,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3131,7 +3170,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3146,7 +3185,7 @@
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3161,7 +3200,7 @@
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3176,13 +3215,13 @@
         <v>6007</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="H5" s="7">
         <v>9</v>
@@ -3191,13 +3230,13 @@
         <v>9690</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="M5" s="7">
         <v>16</v>
@@ -3206,13 +3245,13 @@
         <v>15696</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3227,13 +3266,13 @@
         <v>109758</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="H6" s="7">
         <v>90</v>
@@ -3242,13 +3281,13 @@
         <v>102215</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="M6" s="7">
         <v>205</v>
@@ -3257,13 +3296,13 @@
         <v>211974</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3337,7 +3376,7 @@
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -3346,13 +3385,13 @@
         <v>933</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -3361,13 +3400,13 @@
         <v>933</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3382,13 +3421,13 @@
         <v>49616</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>160</v>
+        <v>61</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="H9" s="7">
         <v>47</v>
@@ -3397,13 +3436,13 @@
         <v>49506</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>121</v>
+        <v>63</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="M9" s="7">
         <v>92</v>
@@ -3412,13 +3451,13 @@
         <v>99121</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3433,13 +3472,13 @@
         <v>538088</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>168</v>
+        <v>69</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="H10" s="7">
         <v>503</v>
@@ -3448,13 +3487,13 @@
         <v>534706</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="M10" s="7">
         <v>1010</v>
@@ -3463,13 +3502,13 @@
         <v>1072795</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3543,7 +3582,7 @@
         <v>10</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -3552,13 +3591,13 @@
         <v>2091</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="M12" s="7">
         <v>4</v>
@@ -3567,13 +3606,13 @@
         <v>4195</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3588,13 +3627,13 @@
         <v>69173</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="H13" s="7">
         <v>91</v>
@@ -3603,13 +3642,13 @@
         <v>98650</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="M13" s="7">
         <v>153</v>
@@ -3618,13 +3657,13 @@
         <v>167824</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3639,13 +3678,13 @@
         <v>946669</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>93</v>
+        <v>199</v>
       </c>
       <c r="H14" s="7">
         <v>847</v>
@@ -3654,13 +3693,13 @@
         <v>931443</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="M14" s="7">
         <v>1719</v>
@@ -3669,13 +3708,13 @@
         <v>1878112</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>196</v>
+        <v>51</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>198</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3758,13 +3797,13 @@
         <v>986</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -3773,13 +3812,13 @@
         <v>986</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>201</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3794,13 +3833,13 @@
         <v>61620</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>101</v>
+        <v>207</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="H17" s="7">
         <v>71</v>
@@ -3809,13 +3848,13 @@
         <v>77477</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>23</v>
+        <v>209</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>204</v>
+        <v>62</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="M17" s="7">
         <v>127</v>
@@ -3824,13 +3863,13 @@
         <v>139097</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>145</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3845,13 +3884,13 @@
         <v>696003</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>109</v>
+        <v>216</v>
       </c>
       <c r="H18" s="7">
         <v>633</v>
@@ -3860,13 +3899,13 @@
         <v>698712</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="M18" s="7">
         <v>1266</v>
@@ -3875,13 +3914,13 @@
         <v>1394715</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3937,7 +3976,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B20" s="5">
         <v>2</v>
@@ -3949,13 +3988,13 @@
         <v>7002</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -3964,13 +4003,13 @@
         <v>3706</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="M20" s="7">
         <v>10</v>
@@ -3979,13 +4018,13 @@
         <v>10708</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4000,13 +4039,13 @@
         <v>91662</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>225</v>
+        <v>192</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="H21" s="7">
         <v>120</v>
@@ -4015,13 +4054,13 @@
         <v>128068</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="M21" s="7">
         <v>206</v>
@@ -4030,13 +4069,13 @@
         <v>219729</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4051,13 +4090,13 @@
         <v>849075</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="H22" s="7">
         <v>879</v>
@@ -4066,13 +4105,13 @@
         <v>920128</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="M22" s="7">
         <v>1697</v>
@@ -4081,13 +4120,13 @@
         <v>1769203</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4155,13 +4194,13 @@
         <v>9107</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="H24" s="7">
         <v>8</v>
@@ -4170,13 +4209,13 @@
         <v>7715</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>246</v>
+        <v>167</v>
       </c>
       <c r="M24" s="7">
         <v>16</v>
@@ -4185,13 +4224,13 @@
         <v>16822</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4206,13 +4245,13 @@
         <v>278078</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="H25" s="7">
         <v>338</v>
@@ -4221,13 +4260,13 @@
         <v>363390</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>254</v>
+        <v>193</v>
       </c>
       <c r="M25" s="7">
         <v>594</v>
@@ -4236,13 +4275,13 @@
         <v>641467</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4257,13 +4296,13 @@
         <v>3139595</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H26" s="7">
         <v>2952</v>
@@ -4272,13 +4311,13 @@
         <v>3187204</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M26" s="7">
         <v>5897</v>
@@ -4287,13 +4326,13 @@
         <v>6326798</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>51</v>
+        <v>267</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4349,7 +4388,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -4370,7 +4409,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0A471BF-7E3C-4520-AE98-E05FFE62CAED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38B6129E-E935-4516-B792-BF366E5C6BD5}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4387,7 +4426,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4494,13 +4533,13 @@
         <v>845</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>177</v>
+        <v>269</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4515,7 +4554,7 @@
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4524,13 +4563,13 @@
         <v>845</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4545,13 +4584,13 @@
         <v>7162</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>269</v>
+        <v>207</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="H5" s="7">
         <v>10</v>
@@ -4560,13 +4599,13 @@
         <v>11351</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="M5" s="7">
         <v>18</v>
@@ -4575,13 +4614,13 @@
         <v>18513</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4596,13 +4635,13 @@
         <v>108539</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="H6" s="7">
         <v>105</v>
@@ -4611,13 +4650,13 @@
         <v>102009</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="M6" s="7">
         <v>209</v>
@@ -4626,13 +4665,13 @@
         <v>210548</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>235</v>
+        <v>288</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4706,7 +4745,7 @@
         <v>10</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>136</v>
+        <v>227</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4721,7 +4760,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -4730,13 +4769,13 @@
         <v>959</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4751,13 +4790,13 @@
         <v>60368</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="H9" s="7">
         <v>56</v>
@@ -4766,13 +4805,13 @@
         <v>60401</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>202</v>
+        <v>296</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="M9" s="7">
         <v>116</v>
@@ -4781,13 +4820,13 @@
         <v>120769</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4802,13 +4841,13 @@
         <v>496927</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>296</v>
+        <v>259</v>
       </c>
       <c r="H10" s="7">
         <v>495</v>
@@ -4817,13 +4856,13 @@
         <v>499078</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>208</v>
+        <v>304</v>
       </c>
       <c r="M10" s="7">
         <v>973</v>
@@ -4832,13 +4871,13 @@
         <v>996005</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4906,13 +4945,13 @@
         <v>867</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>302</v>
+        <v>36</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -4921,13 +4960,13 @@
         <v>1016</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>303</v>
+        <v>187</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -4936,13 +4975,13 @@
         <v>1883</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4957,13 +4996,13 @@
         <v>91798</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="H13" s="7">
         <v>84</v>
@@ -4972,13 +5011,13 @@
         <v>98915</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>307</v>
+        <v>196</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="M13" s="7">
         <v>175</v>
@@ -4987,13 +5026,13 @@
         <v>190713</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>310</v>
+        <v>256</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5008,13 +5047,13 @@
         <v>929767</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="H14" s="7">
         <v>892</v>
@@ -5023,13 +5062,13 @@
         <v>942981</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="M14" s="7">
         <v>1751</v>
@@ -5038,13 +5077,13 @@
         <v>1872748</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>153</v>
+        <v>322</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5112,13 +5151,13 @@
         <v>955</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -5127,13 +5166,13 @@
         <v>1033</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>303</v>
+        <v>325</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -5142,13 +5181,13 @@
         <v>1988</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>322</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5163,13 +5202,13 @@
         <v>76835</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="H17" s="7">
         <v>68</v>
@@ -5178,13 +5217,13 @@
         <v>77736</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>256</v>
+        <v>329</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="M17" s="7">
         <v>139</v>
@@ -5193,13 +5232,13 @@
         <v>154570</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5214,13 +5253,13 @@
         <v>681762</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="H18" s="7">
         <v>667</v>
@@ -5229,13 +5268,13 @@
         <v>706242</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>234</v>
+        <v>338</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="M18" s="7">
         <v>1291</v>
@@ -5244,13 +5283,13 @@
         <v>1388004</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5306,7 +5345,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B20" s="5">
         <v>2</v>
@@ -5324,7 +5363,7 @@
         <v>10</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -5333,13 +5372,13 @@
         <v>2070</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -5348,13 +5387,13 @@
         <v>3697</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>322</v>
+        <v>345</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5369,13 +5408,13 @@
         <v>80783</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="H21" s="7">
         <v>94</v>
@@ -5384,13 +5423,13 @@
         <v>111687</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>145</v>
+        <v>349</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>43</v>
+        <v>350</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="M21" s="7">
         <v>181</v>
@@ -5399,13 +5438,13 @@
         <v>192470</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5420,13 +5459,13 @@
         <v>855157</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>214</v>
+        <v>356</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="H22" s="7">
         <v>863</v>
@@ -5435,13 +5474,13 @@
         <v>930022</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="M22" s="7">
         <v>1706</v>
@@ -5450,13 +5489,13 @@
         <v>1785179</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5524,13 +5563,13 @@
         <v>5253</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>355</v>
+        <v>250</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>201</v>
+        <v>363</v>
       </c>
       <c r="H24" s="7">
         <v>4</v>
@@ -5539,13 +5578,13 @@
         <v>4120</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="M24" s="7">
         <v>10</v>
@@ -5557,10 +5596,10 @@
         <v>80</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5575,13 +5614,13 @@
         <v>316945</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>165</v>
+        <v>367</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="H25" s="7">
         <v>312</v>
@@ -5590,13 +5629,13 @@
         <v>360090</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>360</v>
+        <v>20</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="M25" s="7">
         <v>629</v>
@@ -5605,13 +5644,13 @@
         <v>677035</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>206</v>
+        <v>372</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5626,13 +5665,13 @@
         <v>3072152</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>258</v>
+        <v>374</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="H26" s="7">
         <v>3022</v>
@@ -5641,13 +5680,13 @@
         <v>3180332</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>353</v>
+        <v>378</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="M26" s="7">
         <v>5930</v>
@@ -5656,13 +5695,13 @@
         <v>6252485</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5718,7 +5757,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -5739,7 +5778,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0EBB699-CC4C-4CBA-86E3-F23DB8442CB6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD6F9C51-64BB-4908-972C-1C81F4F1837D}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5756,7 +5795,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5869,7 +5908,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5884,7 +5923,7 @@
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>179</v>
+        <v>385</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5899,7 +5938,7 @@
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>303</v>
+        <v>386</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5920,7 +5959,7 @@
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5935,7 +5974,7 @@
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>179</v>
+        <v>385</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -5950,7 +5989,7 @@
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>303</v>
+        <v>386</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5965,10 +6004,10 @@
         <v>101982</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>33</v>
@@ -5980,10 +6019,10 @@
         <v>130733</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>33</v>
@@ -5995,10 +6034,10 @@
         <v>232715</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>33</v>
@@ -6075,7 +6114,7 @@
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -6090,7 +6129,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -6105,7 +6144,7 @@
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6126,7 +6165,7 @@
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -6141,7 +6180,7 @@
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -6156,7 +6195,7 @@
         <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6171,10 +6210,10 @@
         <v>549823</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>33</v>
@@ -6186,10 +6225,10 @@
         <v>619967</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>33</v>
@@ -6201,10 +6240,10 @@
         <v>1169790</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>33</v>
@@ -6281,7 +6320,7 @@
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -6296,7 +6335,7 @@
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -6311,7 +6350,7 @@
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6332,7 +6371,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -6347,7 +6386,7 @@
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -6362,7 +6401,7 @@
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6377,10 +6416,10 @@
         <v>1039248</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>33</v>
@@ -6392,10 +6431,10 @@
         <v>1060079</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>33</v>
@@ -6407,10 +6446,10 @@
         <v>2099327</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>33</v>
@@ -6502,7 +6541,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -6553,7 +6592,7 @@
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -6583,10 +6622,10 @@
         <v>728772</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>33</v>
@@ -6598,10 +6637,10 @@
         <v>874371</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>33</v>
@@ -6613,10 +6652,10 @@
         <v>1603142</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>33</v>
@@ -6675,7 +6714,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B20" s="5">
         <v>2</v>
@@ -6693,7 +6732,7 @@
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -6708,7 +6747,7 @@
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -6723,7 +6762,7 @@
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6744,7 +6783,7 @@
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -6759,7 +6798,7 @@
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -6774,7 +6813,7 @@
         <v>11</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6789,10 +6828,10 @@
         <v>965403</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>33</v>
@@ -6804,10 +6843,10 @@
         <v>1150432</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>33</v>
@@ -6819,10 +6858,10 @@
         <v>2115835</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>33</v>
@@ -6899,7 +6938,7 @@
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -6914,7 +6953,7 @@
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -6929,7 +6968,7 @@
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6950,7 +6989,7 @@
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -6965,7 +7004,7 @@
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -6980,7 +7019,7 @@
         <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6995,10 +7034,10 @@
         <v>3385228</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>33</v>
@@ -7010,10 +7049,10 @@
         <v>3835581</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>33</v>
@@ -7025,10 +7064,10 @@
         <v>7220808</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>33</v>
@@ -7087,7 +7126,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/cron_mort_index-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/cron_mort_index-Habitat-trans_orig.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0,26</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0,06</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0,09</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0,22</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0,06</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
           <t>0,08</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,05</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0,09</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>0,1</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>0,06</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>0,07</t>
-        </is>
-      </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,24</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,04; 0,14</t>
+          <t>0,04; 0,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,02; 0,11</t>
+          <t>0,06; 0,1</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,03; 0,13</t>
+          <t>0,08; 0,13</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,22; 0,3</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,02; 0,1</t>
+          <t>0,04; 0,08</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,04; 0,15</t>
+          <t>0,07; 0,11</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,05; 0,18</t>
+          <t>0,08; 0,13</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,18; 0,25</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,04; 0,1</t>
+          <t>0,05; 0,07</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,04; 0,11</t>
+          <t>0,07; 0,1</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,05; 0,13</t>
+          <t>0,09; 0,12</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,21; 0,27</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>0,07</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0,09</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0,19</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>0,08</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,11</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>0,06</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0,21</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0,07</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
           <t>0,09</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>0,11</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>0,06</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
+      <c r="M6" s="2" t="inlineStr">
         <is>
           <t>0,09</t>
         </is>
       </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>0,11</t>
-        </is>
-      </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,2</t>
         </is>
       </c>
     </row>
@@ -864,47 +864,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,04; 0,07</t>
+          <t>0,05; 0,09</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,06; 0,11</t>
+          <t>0,06; 0,09</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,09; 0,14</t>
+          <t>0,08; 0,11</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,1; 0,25</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,04; 0,08</t>
+          <t>0,06; 0,1</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,07; 0,12</t>
+          <t>0,08; 0,12</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,08; 0,14</t>
+          <t>0,08; 0,12</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,19; 0,24</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,05; 0,07</t>
+          <t>0,06; 0,09</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
@@ -914,19 +914,19 @@
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,09; 0,13</t>
+          <t>0,08; 0,11</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,14; 0,23</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>0,04</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0,08</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>0,23</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>0,07</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,07</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0,14</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0,06</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
         <is>
           <t>0,09</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>0,08</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="M8" s="2" t="inlineStr">
         <is>
           <t>0,1</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>0,1</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>0,07</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>0,09</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>0,09</t>
-        </is>
-      </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,18</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>0,03; 0,06</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0,06; 0,11</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0,08; 0,13</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0,2; 0,28</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>0,05; 0,09</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0,06; 0,09</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0,08; 0,13</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0,08; 0,13</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0,07; 0,19</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0,04; 0,07</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
         <is>
           <t>0,08; 0,11</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>0,06; 0,1</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>0,08; 0,12</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>0,08; 0,12</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>0,06; 0,09</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>0,07; 0,1</t>
-        </is>
-      </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,08; 0,11</t>
+          <t>0,09; 0,12</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,12; 0,22</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
+          <t>0,09</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0,24</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0,06</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0,13</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0,28</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0,06</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0,12</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
           <t>0,1</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>0,07</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>0,1</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>0,1</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>0,06</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>0,09</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>0,1</t>
-        </is>
-      </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,26</t>
         </is>
       </c>
     </row>
@@ -1144,52 +1144,52 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,03; 0,06</t>
+          <t>0,04; 0,07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,06; 0,11</t>
+          <t>0,09; 0,14</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,08; 0,13</t>
+          <t>0,07; 0,11</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,21; 0,27</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,05; 0,09</t>
+          <t>0,05; 0,08</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,08; 0,13</t>
+          <t>0,11; 0,15</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,08; 0,13</t>
+          <t>0,09; 0,13</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,22; 0,48</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,04; 0,07</t>
+          <t>0,05; 0,07</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,08; 0,11</t>
+          <t>0,11; 0,14</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,23; 0,36</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,52 +1216,52 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
+          <t>0,09</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0,22</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0,07</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>0,11</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,09</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0,22</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
         <is>
           <t>0,06</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>0,13</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>0,11</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>0,06</t>
-        </is>
-      </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,22</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,04; 0,07</t>
+          <t>0,05; 0,06</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,09; 0,14</t>
+          <t>0,08; 0,1</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,07; 0,11</t>
+          <t>0,09; 0,11</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,18; 0,25</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,05; 0,08</t>
+          <t>0,06; 0,08</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,11; 0,15</t>
+          <t>0,1; 0,12</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,09; 0,13</t>
+          <t>0,09; 0,12</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,19; 0,27</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,05; 0,07</t>
+          <t>0,06; 0,07</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,11; 0,14</t>
+          <t>0,09; 0,1</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,09; 0,12</t>
+          <t>0,09; 0,11</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,19; 0,25</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Media</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>0,06</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,09</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,1</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>0,07</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>0,11</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>0,1</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>0,06</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>0,1</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>0,1</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>0,05; 0,06</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>0,08; 0,1</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>0,09; 0,11</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>0,06; 0,08</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>0,1; 0,12</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>0,09; 0,12</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>0,06; 0,07</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>0,09; 0,1</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>0,09; 0,11</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_orig/cron_mort_index-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/cron_mort_index-Habitat-trans_orig.xlsx
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,18; 0,25</t>
+          <t>0,18; 0,26</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -874,52 +874,52 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
+          <t>0,07; 0,11</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0,11; 0,25</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0,06; 0,1</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0,08; 0,12</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0,08; 0,12</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>0,19; 0,24</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>0,06; 0,09</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0,07; 0,1</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
           <t>0,08; 0,11</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>0,1; 0,25</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>0,06; 0,1</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>0,08; 0,12</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>0,08; 0,12</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>0,19; 0,24</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>0,06; 0,09</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>0,07; 0,1</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>0,08; 0,11</t>
-        </is>
-      </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,14; 0,23</t>
+          <t>0,13; 0,23</t>
         </is>
       </c>
     </row>
@@ -1009,7 +1009,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,06; 0,11</t>
+          <t>0,06; 0,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,2; 0,28</t>
+          <t>0,19; 0,28</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1029,14 +1029,14 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
+          <t>0,08; 0,12</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
           <t>0,08; 0,13</t>
         </is>
       </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>0,08; 0,13</t>
-        </is>
-      </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
           <t>0,07; 0,19</t>
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,12; 0,22</t>
+          <t>0,13; 0,22</t>
         </is>
       </c>
     </row>
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,22; 0,48</t>
+          <t>0,22; 0,41</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,23; 0,36</t>
+          <t>0,23; 0,37</t>
         </is>
       </c>
     </row>
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,19; 0,27</t>
+          <t>0,18; 0,26</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
